--- a/JavaApplication19/src/excel/Corte.xlsx
+++ b/JavaApplication19/src/excel/Corte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52627\Google Drive (epicmountain.mtb@gmail.com)\EPIC MOUNTAIN\ADMINISTRACIÓN\SISTEMA DE CONTROL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07299E3-71F1-456D-A37A-16D6D6B595DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE3AC79-DFEE-41E7-BEBE-1F6D8385F6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORTE" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,15 +609,15 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44020</v>
       </c>
@@ -637,7 +637,7 @@
         <v>8103.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -646,7 +646,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -655,7 +655,7 @@
         <v>481.87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -682,7 +682,7 @@
         <v>38731.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
@@ -691,7 +691,7 @@
         <v>33579.18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>9</v>
@@ -709,7 +709,7 @@
         <v>72560</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -721,7 +721,7 @@
         <v>81712.94</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
@@ -731,7 +731,7 @@
         <v>9152.9400000000023</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>84650.33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>13</v>
@@ -750,7 +750,7 @@
         <v>4087.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
@@ -760,7 +760,7 @@
         <v>1150.1100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
         <v>15</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
         <v>16</v>
@@ -778,7 +778,7 @@
         <v>450.11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>17</v>
@@ -787,7 +787,7 @@
         <v>4087.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
@@ -796,7 +796,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
         <v>19</v>
@@ -806,7 +806,7 @@
         <v>-2937.39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>

--- a/JavaApplication19/src/excel/Corte.xlsx
+++ b/JavaApplication19/src/excel/Corte.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE3AC79-DFEE-41E7-BEBE-1F6D8385F6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8FBBC-D9D2-4D26-89F4-F55C56E58426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORTE" sheetId="1" r:id="rId1"/>
+    <sheet name="20  agosto 20" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>CUENTA</t>
   </si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -109,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +161,134 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +318,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,12 +357,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,6 +429,69 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -823,4 +1046,135 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Corte.xlsx
+++ b/JavaApplication19/src/excel/Corte.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A8FBBC-D9D2-4D26-89F4-F55C56E58426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BB4383-D59C-448E-BC11-B9952A7C02B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORTE" sheetId="1" r:id="rId1"/>
-    <sheet name="20  agosto 20" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>CUENTA</t>
   </si>
@@ -101,9 +100,6 @@
   </si>
   <si>
     <t>CANTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -113,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,134 +157,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,23 +188,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -357,27 +212,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -429,69 +269,6 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -1046,135 +823,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Corte.xlsx
+++ b/JavaApplication19/src/excel/Corte.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BB4383-D59C-448E-BC11-B9952A7C02B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F0C447-AFB5-486C-93C4-208CB80CF915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORTE" sheetId="1" r:id="rId1"/>
+    <sheet name="20  agosto 20" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>CUENTA</t>
   </si>
@@ -100,16 +101,26 @@
   </si>
   <si>
     <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>FUGAS</t>
+  </si>
+  <si>
+    <t>UTILIDAD/PERDIDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +168,290 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +481,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,12 +525,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -269,6 +597,147 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,13 +1077,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -823,4 +1292,187 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="61">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="63">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="32"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="33"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="36"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Corte.xlsx
+++ b/JavaApplication19/src/excel/Corte.xlsx
@@ -8,31 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F0C447-AFB5-486C-93C4-208CB80CF915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B054639-8F36-4C96-A2CB-D4A816EEDCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORTE" sheetId="1" r:id="rId1"/>
-    <sheet name="20  agosto 20" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>CUENTA</t>
   </si>
@@ -101,26 +94,16 @@
   </si>
   <si>
     <t>CANTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>FUGAS</t>
-  </si>
-  <si>
-    <t>UTILIDAD/PERDIDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,290 +151,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,28 +182,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF22B473"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF03DF7B"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -525,27 +206,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,147 +264,7 @@
     <xf numFmtId="44" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,15 +601,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1238,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
         <v>16</v>
@@ -1247,7 +774,7 @@
         <v>450.11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>17</v>
@@ -1255,8 +782,9 @@
       <c r="C18" s="9">
         <v>4087.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
@@ -1265,7 +793,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
         <v>19</v>
@@ -1275,7 +803,7 @@
         <v>-2937.39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -1292,187 +820,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="61">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="63">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="26"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="27"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="32"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="35"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="37"/>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="38"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/JavaApplication19/src/excel/Corte.xlsx
+++ b/JavaApplication19/src/excel/Corte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B054639-8F36-4C96-A2CB-D4A816EEDCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214EBC4-7D1E-4ED1-BC45-F16A4E3F980B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">

--- a/JavaApplication19/src/excel/Corte.xlsx
+++ b/JavaApplication19/src/excel/Corte.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -14,10 +14,11 @@
   </bookViews>
   <sheets>
     <sheet name="CORTE" sheetId="1" r:id="rId1"/>
+    <sheet name="21  agosto 20" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>CUENTA</t>
   </si>
@@ -94,16 +95,26 @@
   </si>
   <si>
     <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>FUGAS</t>
+  </si>
+  <si>
+    <t>UTILIDAD/PERDIDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +162,338 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +523,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -206,12 +577,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,6 +654,171 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="9" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="9" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="9" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="9" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="59" fillId="7" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="11" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,8 +1163,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -712,7 +1266,7 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="12" t="n">
         <f>C2+C3+C4+C5+C6+C7+C8+C9</f>
         <v>81712.94</v>
       </c>
@@ -722,9 +1276,9 @@
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="12" t="n">
         <f>C11-C10</f>
-        <v>9152.9400000000023</v>
+        <v>9152.940000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -741,7 +1295,7 @@
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="9" t="n">
         <f>C18+C16</f>
         <v>4087.5</v>
       </c>
@@ -751,7 +1305,7 @@
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="9" t="n">
         <f>C19+C17</f>
         <v>1150.1100000000001</v>
       </c>
@@ -798,7 +1352,7 @@
       <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="17" t="n">
         <f>C15-C14</f>
         <v>-2937.39</v>
       </c>
@@ -810,7 +1364,7 @@
       <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="16" t="n">
         <f>C13+C19+C17-C18-C16</f>
         <v>81712.94</v>
       </c>
@@ -820,4 +1374,202 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s" s="19">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" s="20"/>
+      <c r="B2" t="s" s="40">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n" s="62">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="21"/>
+      <c r="B3" t="s" s="41">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n" s="63">
+        <v>213.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="22"/>
+      <c r="B4" t="s" s="42">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n" s="64">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" s="23"/>
+      <c r="B5" t="s" s="43">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n" s="65">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6" ht="30.0" customHeight="true">
+      <c r="A6" s="24"/>
+      <c r="B6" t="s" s="44">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n" s="66">
+        <v>248.0</v>
+      </c>
+    </row>
+    <row r="7" ht="30.0" customHeight="true">
+      <c r="A7" s="25"/>
+      <c r="B7" t="s" s="45">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n" s="67">
+        <v>64746.31</v>
+      </c>
+    </row>
+    <row r="8" ht="30.0" customHeight="true">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s" s="46">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n" s="68">
+        <v>43122.18</v>
+      </c>
+    </row>
+    <row r="9" ht="30.0" customHeight="true">
+      <c r="A9" s="27"/>
+      <c r="B9" t="s" s="47">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n" s="69">
+        <v>136690.92</v>
+      </c>
+    </row>
+    <row r="10" ht="30.0" customHeight="true">
+      <c r="A10" s="28"/>
+      <c r="B10" t="s" s="48">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n" s="70">
+        <v>73126.0</v>
+      </c>
+    </row>
+    <row r="11" ht="30.0" customHeight="true">
+      <c r="A11" t="s" s="60">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="49">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n" s="71">
+        <f>SUM(C2:C9)</f>
+        <v>245166.41</v>
+      </c>
+    </row>
+    <row r="12" ht="30.0" customHeight="true">
+      <c r="A12" s="30"/>
+      <c r="B12" t="s" s="50">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n" s="72">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="30.0" customHeight="true">
+      <c r="A13" s="31"/>
+      <c r="B13" t="s" s="51">
+        <v>12</v>
+      </c>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" ht="30.0" customHeight="true">
+      <c r="A14" s="32"/>
+      <c r="B14" t="s" s="52">
+        <v>13</v>
+      </c>
+      <c r="C14" s="32"/>
+    </row>
+    <row r="15" ht="30.0" customHeight="true">
+      <c r="A15" s="33"/>
+      <c r="B15" t="s" s="53">
+        <v>14</v>
+      </c>
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" ht="30.0" customHeight="true">
+      <c r="A16" s="34"/>
+      <c r="B16" t="s" s="54">
+        <v>24</v>
+      </c>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" ht="30.0" customHeight="true">
+      <c r="A17" s="35"/>
+      <c r="B17" t="s" s="55">
+        <v>16</v>
+      </c>
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" ht="30.0" customHeight="true">
+      <c r="A18" s="36"/>
+      <c r="B18" t="s" s="56">
+        <v>17</v>
+      </c>
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" ht="30.0" customHeight="true">
+      <c r="A19" s="37"/>
+      <c r="B19" t="s" s="57">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n" s="73">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" ht="30.0" customHeight="true">
+      <c r="A20" s="38"/>
+      <c r="B20" t="s" s="58">
+        <v>25</v>
+      </c>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" ht="30.0" customHeight="true">
+      <c r="A21" t="s" s="61">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s" s="59">
+        <v>10</v>
+      </c>
+      <c r="C21" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>